--- a/dima-daten-bereinigt.xlsx
+++ b/dima-daten-bereinigt.xlsx
@@ -9,12 +9,13 @@
     <sheet name="entries" sheetId="2" r:id="rId5"/>
     <sheet name="categories" sheetId="3" r:id="rId6"/>
     <sheet name="tracking" sheetId="4" r:id="rId7"/>
+    <sheet name="themes" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1130">
   <si>
     <t>Dieses Dokument wurde aus Numbers exportiert und jede Tabelle in ein Excel-Arbeitsblatt umgewandelt. Alle anderen Objekte der einzelnen Numbers-Blätter wurden auf eigene Arbeitsblätter übertragen. Beachte, dass die Formelberechnungen in Excel möglicherweise anders sind.</t>
   </si>
@@ -118,16 +119,6 @@
       </rPr>
       <t>phone</t>
     </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -139,16 +130,6 @@
       </rPr>
       <t>comments</t>
     </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -159,16 +140,6 @@
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>likes</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -3553,7 +3524,7 @@
     <t>Fahrzeuge</t>
   </si>
   <si>
-    <t>Boot, Bus, Fahrrad, Kutsche, Lastenrad, LKW, Motorrad, PKW, Roller, S-Bahn, Tram, U-Bahn, Zug</t>
+    <t>Auto, Boot, Bus, Fahrrad, Kutsche, Lastenrad, LKW, Motorrad, PKW, Roller, S-Bahn, Tram, U-Bahn, Zug</t>
   </si>
   <si>
     <t>Verkehrsteilnehmende</t>
@@ -3565,7 +3536,7 @@
     <t>Ort</t>
   </si>
   <si>
-    <t>Damm, Gailbach, Leider, Nilkheim, Obernau, Obernauer Kolonie, Schweinheim, Stadtmitte, Strietwald</t>
+    <t>Damm, Gailbach, Leider, Nilkheim, Obernau, Österreicher Kolonie, Schweinheim, Stadtmitte, Strietwald</t>
   </si>
   <si>
     <t>user</t>
@@ -3577,6 +3548,9 @@
     <t>action</t>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -3590,6 +3564,21 @@
   </si>
   <si>
     <t>noaction</t>
+  </si>
+  <si>
+    <t>no-json</t>
+  </si>
+  <si>
+    <t>öffentlicher Verkehr, Elektromobilität, Infrastruktur, Verkehrsführung, Sonstiges, Fahrzeuge, Verkehrsteilnehmende, Ort</t>
+  </si>
+  <si>
+    <t>Freizeit</t>
+  </si>
+  <si>
+    <t>Kultur</t>
+  </si>
+  <si>
+    <t>Einkauf</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3640,12 +3629,6 @@
     <font>
       <b val="1"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -3723,7 +3706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -3997,44 +3980,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -4110,10 +4062,10 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4227,32 +4179,23 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -36362,7 +36305,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -36370,8 +36313,7 @@
   <cols>
     <col min="1" max="1" width="16.3516" style="63" customWidth="1"/>
     <col min="2" max="2" width="52.1719" style="63" customWidth="1"/>
-    <col min="3" max="5" width="16.3516" style="63" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="63" customWidth="1"/>
+    <col min="3" max="16384" width="16.3516" style="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
@@ -36381,104 +36323,74 @@
       <c r="B1" t="s" s="64">
         <v>1104</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="45.35" customHeight="1">
-      <c r="A2" t="s" s="67">
+      <c r="A2" t="s" s="65">
         <v>128</v>
       </c>
-      <c r="B2" t="s" s="67">
+      <c r="B2" t="s" s="65">
         <v>1105</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="22.7" customHeight="1">
-      <c r="A3" t="s" s="70">
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" t="s" s="66">
         <v>91</v>
       </c>
-      <c r="B3" t="s" s="70">
+      <c r="B3" t="s" s="66">
         <v>1106</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="53.15" customHeight="1">
-      <c r="A4" t="s" s="70">
+      <c r="A4" t="s" s="66">
         <v>41</v>
       </c>
-      <c r="B4" t="s" s="70">
+      <c r="B4" t="s" s="66">
         <v>1107</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="90.35" customHeight="1">
-      <c r="A5" t="s" s="70">
+      <c r="A5" t="s" s="66">
         <v>63</v>
       </c>
-      <c r="B5" t="s" s="70">
+      <c r="B5" t="s" s="66">
         <v>1108</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="45.35" customHeight="1">
-      <c r="A6" t="s" s="67">
+      <c r="A6" t="s" s="65">
         <v>87</v>
       </c>
-      <c r="B6" t="s" s="67">
+      <c r="B6" t="s" s="65">
         <v>1109</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="7"/>
     </row>
     <row r="7" ht="30.35" customHeight="1">
-      <c r="A7" t="s" s="70">
+      <c r="A7" t="s" s="66">
         <v>1110</v>
       </c>
-      <c r="B7" t="s" s="70">
+      <c r="B7" t="s" s="66">
         <v>1111</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="7"/>
     </row>
     <row r="8" ht="45.35" customHeight="1">
-      <c r="A8" t="s" s="67">
+      <c r="A8" t="s" s="65">
         <v>1112</v>
       </c>
-      <c r="B8" t="s" s="67">
+      <c r="B8" t="s" s="65">
         <v>1113</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="7"/>
     </row>
     <row r="9" ht="30.35" customHeight="1">
-      <c r="A9" t="s" s="67">
+      <c r="A9" t="s" s="65">
         <v>1114</v>
       </c>
-      <c r="B9" t="s" s="67">
+      <c r="B9" t="s" s="65">
         <v>1115</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -36494,16 +36406,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="73" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="73" customWidth="1"/>
-    <col min="3" max="5" width="16.3516" style="73" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="73" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="68" customWidth="1"/>
+    <col min="2" max="2" width="16.6719" style="68" customWidth="1"/>
+    <col min="3" max="6" width="16.3516" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
@@ -36522,79 +36434,152 @@
       <c r="E1" t="s" s="64">
         <v>1118</v>
       </c>
+      <c r="F1" t="s" s="64">
+        <v>1119</v>
+      </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="67">
-        <v>1119</v>
-      </c>
-      <c r="B2" t="s" s="67">
+      <c r="A2" t="s" s="65">
         <v>1120</v>
       </c>
-      <c r="C2" t="s" s="67">
+      <c r="B2" t="s" s="65">
         <v>1121</v>
       </c>
-      <c r="D2" t="s" s="67">
+      <c r="C2" t="s" s="65">
         <v>1122</v>
       </c>
-      <c r="E2" t="s" s="67">
+      <c r="D2" t="s" s="65">
         <v>1123</v>
       </c>
+      <c r="E2" t="s" s="65">
+        <v>1124</v>
+      </c>
+      <c r="F2" t="s" s="65">
+        <v>1125</v>
+      </c>
     </row>
     <row r="3" ht="22.7" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" ht="53.15" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="22.4062" style="70" customWidth="1"/>
+    <col min="2" max="2" width="67.2812" style="70" customWidth="1"/>
+    <col min="3" max="16384" width="16.3516" style="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" t="s" s="64">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="45.35" customHeight="1">
+      <c r="A2" t="s" s="65">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="65">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="3" ht="22.7" customHeight="1">
+      <c r="A3" t="s" s="66">
+        <v>1127</v>
+      </c>
+      <c r="B3" s="66"/>
+    </row>
+    <row r="4" ht="53.15" customHeight="1">
+      <c r="A4" t="s" s="66">
+        <v>1128</v>
+      </c>
+      <c r="B4" s="66"/>
+    </row>
+    <row r="5" ht="90.35" customHeight="1">
+      <c r="A5" t="s" s="66">
+        <v>1129</v>
+      </c>
+      <c r="B5" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
